--- a/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
@@ -859,16 +859,16 @@
         <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -1003,7 +1003,7 @@
         <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.73</v>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1175,13 +1175,13 @@
         <v>2.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
@@ -1427,10 +1427,10 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.17</v>
@@ -1768,16 +1768,16 @@
         <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH9" t="n">
         <v>51</v>
@@ -1798,16 +1798,16 @@
         <v>1250</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>13</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>34</v>
@@ -2146,16 +2146,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>1.91</v>
@@ -2215,7 +2215,7 @@
         <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2248,10 +2248,10 @@
         <v>7.5</v>
       </c>
       <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
         <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>12</v>
       </c>
       <c r="AQ12" t="n">
         <v>34</v>
@@ -2437,7 +2437,7 @@
         <v>2.82</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
         <v>1.75</v>
@@ -2489,7 +2489,7 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
         <v>10.5</v>
@@ -2519,7 +2519,7 @@
         <v>800</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AO14" t="n">
         <v>14</v>
@@ -2531,7 +2531,7 @@
         <v>37</v>
       </c>
       <c r="AR14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
         <v>40</v>
@@ -2847,28 +2847,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2908,7 +2908,7 @@
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>9</v>
@@ -2917,13 +2917,13 @@
         <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
         <v>6.5</v>
@@ -2988,34 +2988,34 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
         <v>1.78</v>
@@ -3038,43 +3038,43 @@
         <v>1.22</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>67</v>
@@ -3083,13 +3083,13 @@
         <v>501</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3151,10 +3151,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3165,10 +3165,10 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3274,16 +3274,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -3341,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
         <v>23</v>
@@ -3371,13 +3371,13 @@
         <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AQ20" t="n">
         <v>21</v>
       </c>
       <c r="AR20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
@@ -3427,7 +3427,7 @@
         <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -3439,22 +3439,22 @@
         <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3974,10 +3974,10 @@
         <v>2.35</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -3986,13 +3986,13 @@
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4003,10 +4003,10 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -4023,13 +4023,13 @@
         <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
         <v>12</v>
@@ -4047,13 +4047,13 @@
         <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>6.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
@@ -4074,7 +4074,7 @@
         <v>29</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
         <v>29</v>
@@ -4144,10 +4144,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4158,10 +4158,10 @@
         <v>1.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA26" t="n">
         <v>1.83</v>
@@ -4299,7 +4299,7 @@
         <v>1.22</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z27" t="n">
         <v>2.5</v>
@@ -4544,19 +4544,19 @@
         <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O29" t="n">
         <v>1.13</v>
@@ -4585,16 +4585,16 @@
         <v>1.67</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC29" t="n">
         <v>9.5</v>
@@ -4612,7 +4612,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
         <v>17</v>
@@ -4680,13 +4680,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4695,7 +4695,7 @@
         <v>1.95</v>
       </c>
       <c r="L30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4738,19 +4738,19 @@
         <v>1.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
         <v>34</v>
@@ -4768,13 +4768,13 @@
         <v>51</v>
       </c>
       <c r="AM30" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>12</v>
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4845,18 +4845,18 @@
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -4873,16 +4873,16 @@
         <v>2.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC31" t="n">
         <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>9.5</v>
@@ -4891,25 +4891,25 @@
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN31" t="n">
         <v>8.5</v>
@@ -4924,7 +4924,7 @@
         <v>34</v>
       </c>
       <c r="AR31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS31" t="n">
         <v>41</v>
@@ -4980,10 +4980,10 @@
         <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>1.36</v>
@@ -4994,10 +4994,10 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -5103,16 +5103,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K33" t="n">
         <v>1.95</v>
@@ -5121,10 +5121,10 @@
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O33" t="n">
         <v>1.5</v>
@@ -5133,27 +5133,27 @@
         <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z33" t="n">
         <v>2.25</v>
@@ -5168,7 +5168,7 @@
         <v>5</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE33" t="n">
         <v>9.5</v>
@@ -5198,7 +5198,7 @@
         <v>101</v>
       </c>
       <c r="AN33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO33" t="n">
         <v>21</v>
@@ -5266,10 +5266,10 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
         <v>1.36</v>
@@ -5294,7 +5294,7 @@
         <v>1.22</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z34" t="n">
         <v>2.5</v>
@@ -5407,10 +5407,10 @@
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O35" t="n">
         <v>1.5</v>
@@ -5419,27 +5419,27 @@
         <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X35" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z35" t="n">
         <v>2.25</v>
@@ -6098,105 +6098,109 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="J40" t="n">
         <v>3.45</v>
       </c>
       <c r="K40" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L40" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P40" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="n">
-        <v>2.42</v>
+        <v>2.87</v>
       </c>
       <c r="X40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+        <v>1.31</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2.57</v>
+      </c>
       <c r="AA40" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AB40" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AC40" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="AD40" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE40" t="n">
         <v>10.25</v>
       </c>
       <c r="AF40" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ40" t="n">
         <v>25</v>
       </c>
-      <c r="AI40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AQ40" t="n">
+      <c r="AR40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AS40" t="n">
         <v>26</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -6513,22 +6517,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6545,10 +6549,10 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T43" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U43" t="n">
         <v>1.98</v>
@@ -6581,10 +6585,10 @@
         <v>11</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG43" t="n">
         <v>15</v>
@@ -6676,10 +6680,10 @@
         <v>4.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
         <v>1.2</v>
@@ -6803,13 +6807,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>2.38</v>
@@ -6859,10 +6863,10 @@
         <v>3.25</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AB45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
@@ -6901,7 +6905,7 @@
         <v>15</v>
       </c>
       <c r="AO45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP45" t="n">
         <v>15</v>
@@ -7139,7 +7143,7 @@
         <v>1.53</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Z47" t="n">
         <v>3.5</v>
@@ -7234,13 +7238,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
         <v>2.88</v>
@@ -7249,7 +7253,7 @@
         <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -7287,13 +7291,13 @@
         <v>1.3</v>
       </c>
       <c r="Z48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AB48" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AC48" t="n">
         <v>11</v>
@@ -7305,13 +7309,13 @@
         <v>9.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG48" t="n">
         <v>17</v>
       </c>
       <c r="AH48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI48" t="n">
         <v>15</v>
@@ -7323,7 +7327,7 @@
         <v>12</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM48" t="n">
         <v>126</v>
@@ -7403,41 +7407,41 @@
         <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z49" t="n">
         <v>3</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD49" t="n">
         <v>7.5</v>
@@ -7449,7 +7453,7 @@
         <v>11</v>
       </c>
       <c r="AG49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH49" t="n">
         <v>26</v>
@@ -7461,7 +7465,7 @@
         <v>7.5</v>
       </c>
       <c r="AK49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL49" t="n">
         <v>51</v>
@@ -7570,7 +7574,7 @@
         <v>1.36</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z50" t="n">
         <v>3</v>
@@ -7715,7 +7719,7 @@
         <v>1.44</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Z51" t="n">
         <v>3.4</v>
@@ -7860,7 +7864,7 @@
         <v>1.44</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z52" t="n">
         <v>3.25</v>
@@ -7955,7 +7959,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
@@ -7964,7 +7968,7 @@
         <v>5.5</v>
       </c>
       <c r="J53" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K53" t="n">
         <v>2.1</v>
@@ -8001,19 +8005,19 @@
         <v>1.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA53" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AB53" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD53" t="n">
         <v>7.5</v>
@@ -8043,7 +8047,7 @@
         <v>51</v>
       </c>
       <c r="AM53" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN53" t="n">
         <v>13</v>
@@ -8250,13 +8254,13 @@
         <v>3.45</v>
       </c>
       <c r="J55" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -8276,7 +8280,7 @@
         <v>2.02</v>
       </c>
       <c r="T55" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -8299,22 +8303,22 @@
         <v>1.87</v>
       </c>
       <c r="AC55" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD55" t="n">
         <v>9.25</v>
       </c>
       <c r="AE55" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF55" t="n">
         <v>18</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI55" t="n">
         <v>6.8</v>
@@ -8323,16 +8327,16 @@
         <v>6.3</v>
       </c>
       <c r="AK55" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL55" t="n">
         <v>75</v>
       </c>
       <c r="AM55" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN55" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AO55" t="n">
         <v>18</v>
@@ -8344,10 +8348,10 @@
         <v>50</v>
       </c>
       <c r="AR55" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS55" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
@@ -8382,22 +8386,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>3.95</v>
       </c>
       <c r="I56" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K56" t="n">
         <v>2.3</v>
       </c>
       <c r="L56" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -8406,7 +8410,7 @@
         <v>8.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -8434,10 +8438,10 @@
         <v>3.05</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AB56" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AC56" t="n">
         <v>8</v>
@@ -8452,7 +8456,7 @@
         <v>11.25</v>
       </c>
       <c r="AG56" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH56" t="n">
         <v>22</v>
@@ -8464,7 +8468,7 @@
         <v>8</v>
       </c>
       <c r="AK56" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL56" t="n">
         <v>60</v>
@@ -8473,22 +8477,22 @@
         <v>400</v>
       </c>
       <c r="AN56" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO56" t="n">
         <v>37</v>
       </c>
       <c r="AP56" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ56" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS56" t="n">
         <v>50</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="57">
@@ -8664,28 +8668,28 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="H58" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I58" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O58" t="n">
         <v>1.29</v>
@@ -8722,13 +8726,13 @@
         <v>2.02</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD58" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF58" t="n">
         <v>35</v>
@@ -8737,13 +8741,13 @@
         <v>24</v>
       </c>
       <c r="AH58" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI58" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AK58" t="n">
         <v>13.5</v>
@@ -8755,7 +8759,7 @@
         <v>450</v>
       </c>
       <c r="AN58" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO58" t="n">
         <v>11.25</v>
@@ -8764,13 +8768,13 @@
         <v>9</v>
       </c>
       <c r="AQ58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR58" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -8805,7 +8809,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H59" t="n">
         <v>4.2</v>
@@ -8814,7 +8818,7 @@
         <v>1.4</v>
       </c>
       <c r="J59" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="K59" t="n">
         <v>2.35</v>
@@ -8860,7 +8864,7 @@
         <v>1.85</v>
       </c>
       <c r="AB59" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AC59" t="n">
         <v>18.5</v>
@@ -8872,13 +8876,13 @@
         <v>21</v>
       </c>
       <c r="AF59" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG59" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI59" t="n">
         <v>8.25</v>
@@ -8899,13 +8903,13 @@
         <v>7.4</v>
       </c>
       <c r="AO59" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AP59" t="n">
         <v>8</v>
       </c>
       <c r="AQ59" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AR59" t="n">
         <v>11</v>
@@ -9228,22 +9232,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="J62" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K62" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L62" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -9274,10 +9278,10 @@
         <v>1.28</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AA62" t="n">
         <v>1.8</v>
@@ -9289,16 +9293,16 @@
         <v>8.25</v>
       </c>
       <c r="AD62" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE62" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF62" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH62" t="n">
         <v>32</v>
@@ -9319,19 +9323,19 @@
         <v>600</v>
       </c>
       <c r="AN62" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AO62" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR62" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS62" t="n">
         <v>32</v>
@@ -9792,19 +9796,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H66" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
         <v>2.57</v>
       </c>
       <c r="J66" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K66" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L66" t="n">
         <v>3</v>
@@ -9816,44 +9820,44 @@
         <v>9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P66" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T66" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="X66" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z66" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AB66" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE66" t="n">
         <v>9.5</v>
@@ -9862,43 +9866,43 @@
         <v>26</v>
       </c>
       <c r="AG66" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI66" t="n">
         <v>9</v>
       </c>
       <c r="AJ66" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AL66" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN66" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO66" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP66" t="n">
         <v>9.75</v>
       </c>
       <c r="AQ66" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR66" t="n">
         <v>18.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
@@ -9936,86 +9940,86 @@
         <v>10</v>
       </c>
       <c r="H67" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="I67" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="J67" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="K67" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L67" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
       </c>
       <c r="N67" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O67" t="n">
         <v>1.13</v>
       </c>
       <c r="P67" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T67" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X67" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="Z67" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AB67" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AC67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD67" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE67" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF67" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AG67" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI67" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ67" t="n">
         <v>12</v>
       </c>
       <c r="AK67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL67" t="n">
         <v>80</v>
@@ -10024,13 +10028,13 @@
         <v>500</v>
       </c>
       <c r="AN67" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO67" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AQ67" t="n">
         <v>8.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
@@ -1575,7 +1575,7 @@
         <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.73</v>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
@@ -1738,7 +1738,7 @@
         <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U9" t="n">
         <v>5.2</v>
@@ -1753,7 +1753,7 @@
         <v>1.11</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z9" t="n">
         <v>2.1</v>
@@ -1798,7 +1798,7 @@
         <v>1250</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -1878,16 +1878,16 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
         <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="n">
         <v>4.1</v>
@@ -1902,7 +1902,7 @@
         <v>1.17</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z10" t="n">
         <v>2.25</v>
@@ -2036,7 +2036,7 @@
         <v>2.35</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
         <v>3.6</v>
@@ -2051,10 +2051,10 @@
         <v>1.18</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA11" t="n">
         <v>2</v>
@@ -2185,7 +2185,7 @@
         <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U12" t="n">
         <v>4.2</v>
@@ -2200,7 +2200,7 @@
         <v>1.17</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z12" t="n">
         <v>2.25</v>
@@ -2295,105 +2295,105 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
         <v>4.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.9</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="X13" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.4</v>
+        <v>8.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.4</v>
+        <v>8.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AS13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2752,7 +2752,7 @@
         <v>1.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z16" t="n">
         <v>3.25</v>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
@@ -2856,7 +2856,7 @@
         <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
@@ -2865,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2879,10 +2879,10 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2917,13 +2917,13 @@
         <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>6.5</v>
@@ -2991,10 +2991,10 @@
         <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
         <v>2.3</v>
@@ -3009,7 +3009,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3024,10 +3024,10 @@
         <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
         <v>1.67</v>
       </c>
       <c r="AC18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -3071,7 +3071,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK18" t="n">
         <v>21</v>
@@ -3148,7 +3148,7 @@
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3165,10 +3165,10 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3185,10 +3185,10 @@
         <v>2.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC19" t="n">
         <v>9</v>
@@ -3212,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -3274,16 +3274,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -3341,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
         <v>23</v>
@@ -3371,13 +3371,13 @@
         <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AQ20" t="n">
         <v>21</v>
       </c>
       <c r="AR20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3735,25 +3735,25 @@
         <v>1.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AA23" t="n">
         <v>1.65</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>35</v>
@@ -3762,37 +3762,37 @@
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
         <v>400</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO23" t="n">
         <v>12.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AQ23" t="n">
         <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AS23" t="n">
         <v>27</v>
@@ -3830,13 +3830,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H24" t="n">
         <v>4.75</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.91</v>
@@ -3845,16 +3845,16 @@
         <v>2.63</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
         <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P24" t="n">
         <v>6</v>
@@ -3873,7 +3873,7 @@
         <v>2.1</v>
       </c>
       <c r="X24" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y24" t="n">
         <v>1.25</v>
@@ -3882,13 +3882,13 @@
         <v>3.75</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
         <v>9</v>
@@ -3918,13 +3918,13 @@
         <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN24" t="n">
         <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP24" t="n">
         <v>19</v>
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
         <v>2.9</v>
@@ -3989,13 +3989,13 @@
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
         <v>3.75</v>
@@ -4003,10 +4003,10 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -4014,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y25" t="n">
         <v>1.36</v>
@@ -4023,13 +4023,13 @@
         <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
         <v>12</v>
@@ -4047,13 +4047,13 @@
         <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>6.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
@@ -4062,7 +4062,7 @@
         <v>151</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4118,16 +4118,16 @@
         <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
         <v>4.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -4147,7 +4147,7 @@
         <v>2.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4158,19 +4158,19 @@
         <v>1.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
         <v>21</v>
@@ -4188,19 +4188,19 @@
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>51</v>
       </c>
       <c r="AM26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN26" t="n">
         <v>6.5</v>
@@ -4215,7 +4215,7 @@
         <v>15</v>
       </c>
       <c r="AR26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
@@ -4271,10 +4271,10 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -4288,7 +4288,7 @@
         <v>2.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -4299,16 +4299,16 @@
         <v>1.22</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z27" t="n">
         <v>2.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC27" t="n">
         <v>6</v>
@@ -4329,7 +4329,7 @@
         <v>34</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
         <v>6.5</v>
@@ -4344,7 +4344,7 @@
         <v>1250</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
         <v>21</v>
@@ -4873,10 +4873,10 @@
         <v>2.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AC31" t="n">
         <v>7</v>
@@ -5017,7 +5017,7 @@
         <v>2.1</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AC32" t="n">
         <v>5.5</v>
@@ -5115,7 +5115,7 @@
         <v>2.6</v>
       </c>
       <c r="K33" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L33" t="n">
         <v>5.5</v>
@@ -5153,7 +5153,7 @@
         <v>1.17</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z33" t="n">
         <v>2.25</v>
@@ -5294,7 +5294,7 @@
         <v>1.22</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z34" t="n">
         <v>2.5</v>
@@ -5401,7 +5401,7 @@
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L35" t="n">
         <v>4.33</v>
@@ -5439,7 +5439,7 @@
         <v>1.17</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z35" t="n">
         <v>2.25</v>
@@ -6523,7 +6523,7 @@
         <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J43" t="n">
         <v>2.63</v>
@@ -6621,7 +6621,7 @@
         <v>12</v>
       </c>
       <c r="AQ43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR43" t="n">
         <v>26</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H46" t="n">
         <v>3.9</v>
@@ -6984,10 +6984,10 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T46" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -7093,7 +7093,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H47" t="n">
         <v>3.8</v>
@@ -7131,10 +7131,10 @@
         <v>2.35</v>
       </c>
       <c r="U47" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="V47" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="W47" t="n">
         <v>2.38</v>
@@ -7143,7 +7143,7 @@
         <v>1.53</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Z47" t="n">
         <v>3.5</v>
@@ -7238,13 +7238,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J48" t="n">
         <v>2.88</v>
@@ -7288,7 +7288,7 @@
         <v>1.44</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z48" t="n">
         <v>3.25</v>
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H49" t="n">
         <v>3.8</v>
@@ -7415,10 +7415,10 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T49" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -7429,7 +7429,7 @@
         <v>1.36</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z49" t="n">
         <v>3</v>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J50" t="n">
         <v>3.25</v>
@@ -7556,10 +7556,10 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U50" t="n">
         <v>1.9</v>
@@ -7574,7 +7574,7 @@
         <v>1.36</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z50" t="n">
         <v>3</v>
@@ -7669,7 +7669,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H51" t="n">
         <v>3.7</v>
@@ -7719,7 +7719,7 @@
         <v>1.44</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Z51" t="n">
         <v>3.4</v>
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H52" t="n">
         <v>3.75</v>
@@ -7864,7 +7864,7 @@
         <v>1.44</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z52" t="n">
         <v>3.25</v>
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
@@ -8005,10 +8005,10 @@
         <v>1.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA53" t="n">
         <v>1.95</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
@@ -8386,22 +8386,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H56" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L56" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -8410,7 +8410,7 @@
         <v>8.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -8421,15 +8421,15 @@
         <v>1.62</v>
       </c>
       <c r="T56" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="X56" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y56" t="n">
         <v>1.33</v>
@@ -8438,25 +8438,25 @@
         <v>3.05</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AB56" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AC56" t="n">
         <v>8</v>
       </c>
       <c r="AD56" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AE56" t="n">
         <v>8</v>
       </c>
       <c r="AF56" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
         <v>22</v>
@@ -8465,34 +8465,34 @@
         <v>8.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK56" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM56" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN56" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ56" t="n">
         <v>120</v>
       </c>
       <c r="AR56" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS56" t="n">
         <v>55</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="57">
@@ -8668,22 +8668,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="H58" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I58" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="J58" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K58" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L58" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -8723,58 +8723,58 @@
         <v>1.7</v>
       </c>
       <c r="AB58" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD58" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF58" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG58" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH58" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI58" t="n">
         <v>7.3</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AK58" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM58" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AQ58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR58" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
@@ -9514,22 +9514,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H64" t="n">
         <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="J64" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K64" t="n">
         <v>2.1</v>
       </c>
       <c r="L64" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M64" t="n">
         <v>1.06</v>
@@ -9575,16 +9575,16 @@
         <v>8.25</v>
       </c>
       <c r="AD64" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE64" t="n">
         <v>9</v>
       </c>
       <c r="AF64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG64" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH64" t="n">
         <v>27</v>
@@ -9605,19 +9605,19 @@
         <v>450</v>
       </c>
       <c r="AN64" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO64" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP64" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS64" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>8.5</v>
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -1427,10 +1427,10 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1717,10 +1717,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1738,7 +1738,7 @@
         <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U9" t="n">
         <v>5.2</v>
@@ -1753,7 +1753,7 @@
         <v>1.11</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z9" t="n">
         <v>2.1</v>
@@ -1866,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -1878,16 +1878,16 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
         <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="n">
         <v>4.1</v>
@@ -1902,7 +1902,7 @@
         <v>1.17</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z10" t="n">
         <v>2.25</v>
@@ -2036,7 +2036,7 @@
         <v>2.35</v>
       </c>
       <c r="T11" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
         <v>3.6</v>
@@ -2051,10 +2051,10 @@
         <v>1.18</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA11" t="n">
         <v>2</v>
@@ -2146,13 +2146,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2185,7 +2185,7 @@
         <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="U12" t="n">
         <v>4.2</v>
@@ -2200,7 +2200,7 @@
         <v>1.17</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z12" t="n">
         <v>2.25</v>
@@ -2212,13 +2212,13 @@
         <v>1.67</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
         <v>23</v>
@@ -2257,7 +2257,7 @@
         <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS12" t="n">
         <v>41</v>
@@ -2331,7 +2331,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="X13" t="n">
         <v>1.39</v>
@@ -2345,13 +2345,13 @@
         <v>1.93</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
         <v>8.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>12.5</v>
@@ -2381,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
         <v>14.5</v>
@@ -2393,7 +2393,7 @@
         <v>40</v>
       </c>
       <c r="AS13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2437,7 +2437,7 @@
         <v>2.82</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>1.75</v>
@@ -2486,7 +2486,7 @@
         <v>1.75</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>14.5</v>
@@ -2498,7 +2498,7 @@
         <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH14" t="n">
         <v>40</v>
@@ -2519,7 +2519,7 @@
         <v>800</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>14</v>
@@ -2531,7 +2531,7 @@
         <v>37</v>
       </c>
       <c r="AR14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS14" t="n">
         <v>40</v>
@@ -2572,10 +2572,10 @@
         <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J15" t="n">
         <v>2.07</v>
@@ -2584,7 +2584,7 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2592,7 +2592,7 @@
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -2614,7 +2614,7 @@
         <v>1.44</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AA15" t="n">
         <v>2.15</v>
@@ -2668,7 +2668,7 @@
         <v>150</v>
       </c>
       <c r="AR15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS15" t="n">
         <v>90</v>
@@ -2752,7 +2752,7 @@
         <v>1.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z16" t="n">
         <v>3.25</v>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
@@ -2997,7 +2997,7 @@
         <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3006,10 +3006,10 @@
         <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3050,7 +3050,7 @@
         <v>1.67</v>
       </c>
       <c r="AC18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -3083,7 +3083,7 @@
         <v>501</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3092,7 +3092,7 @@
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3133,13 +3133,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -3148,13 +3148,13 @@
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3185,10 +3185,10 @@
         <v>2.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC19" t="n">
         <v>9</v>
@@ -3197,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>34</v>
@@ -3212,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -3227,7 +3227,7 @@
         <v>7.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
         <v>9.5</v>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
@@ -3560,22 +3560,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="K22" t="n">
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -3591,7 +3591,7 @@
         <v>1.62</v>
       </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3604,61 +3604,61 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AE22" t="n">
         <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AO22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR22" t="n">
         <v>45</v>
       </c>
-      <c r="AP22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>65</v>
-      </c>
       <c r="AS22" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -3848,13 +3848,13 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
         <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P24" t="n">
         <v>6</v>
@@ -3873,7 +3873,7 @@
         <v>2.1</v>
       </c>
       <c r="X24" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y24" t="n">
         <v>1.25</v>
@@ -3989,13 +3989,13 @@
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
         <v>3.75</v>
@@ -4014,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y25" t="n">
         <v>1.36</v>
@@ -4112,13 +4112,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
         <v>4.75</v>
@@ -4147,15 +4147,15 @@
         <v>2.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y26" t="n">
         <v>1.44</v>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
@@ -4271,10 +4271,10 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -4288,7 +4288,7 @@
         <v>2.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I29" t="n">
         <v>11</v>
@@ -4550,13 +4550,13 @@
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
         <v>1.13</v>
@@ -4606,22 +4606,22 @@
         <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
         <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>51</v>
@@ -4821,13 +4821,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -4873,10 +4873,10 @@
         <v>2.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AC31" t="n">
         <v>7</v>
@@ -4891,7 +4891,7 @@
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
@@ -4994,10 +4994,10 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T32" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -5017,7 +5017,7 @@
         <v>2.1</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC32" t="n">
         <v>5.5</v>
@@ -5112,19 +5112,19 @@
         <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L33" t="n">
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.5</v>
@@ -5159,10 +5159,10 @@
         <v>2.25</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC33" t="n">
         <v>5</v>
@@ -5174,7 +5174,7 @@
         <v>9.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
         <v>19</v>
@@ -5186,7 +5186,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK33" t="n">
         <v>21</v>
@@ -5201,7 +5201,7 @@
         <v>9.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP33" t="n">
         <v>17</v>
@@ -5260,30 +5260,30 @@
         <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -5318,7 +5318,7 @@
         <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
@@ -5401,7 +5401,7 @@
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L35" t="n">
         <v>4.33</v>
@@ -5534,13 +5534,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -5564,10 +5564,10 @@
         <v>2.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S36" t="n">
         <v>2.5</v>
@@ -5590,10 +5590,10 @@
         <v>2.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC36" t="n">
         <v>7</v>
@@ -5620,16 +5620,16 @@
         <v>6.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO36" t="n">
         <v>10</v>
@@ -5679,28 +5679,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>1.91</v>
       </c>
       <c r="K37" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
@@ -5711,18 +5711,18 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T37" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y37" t="n">
         <v>1.4</v>
@@ -5746,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="AF37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG37" t="n">
         <v>13</v>
@@ -5770,7 +5770,7 @@
         <v>101</v>
       </c>
       <c r="AN37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO37" t="n">
         <v>41</v>
@@ -5829,7 +5829,7 @@
         <v>3.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
@@ -5884,7 +5884,7 @@
         <v>9.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF38" t="n">
         <v>19</v>
@@ -5923,7 +5923,7 @@
         <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS38" t="n">
         <v>41</v>
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H41" t="n">
         <v>2.72</v>
@@ -6244,10 +6244,10 @@
         <v>3.4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="L41" t="n">
         <v>3.9</v>
@@ -6271,16 +6271,16 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="X41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Z41" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AA41" t="n">
         <v>1.57</v>
@@ -6289,7 +6289,7 @@
         <v>2.1</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD41" t="n">
         <v>12.5</v>
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
         <v>2.63</v>
@@ -6532,7 +6532,7 @@
         <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6585,7 +6585,7 @@
         <v>11</v>
       </c>
       <c r="AE43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF43" t="n">
         <v>19</v>
@@ -6621,7 +6621,7 @@
         <v>12</v>
       </c>
       <c r="AQ43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR43" t="n">
         <v>26</v>
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
         <v>4.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
@@ -6745,7 +6745,7 @@
         <v>13</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK44" t="n">
         <v>13</v>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
         <v>2.38</v>
@@ -6863,10 +6863,10 @@
         <v>3.25</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AB45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
@@ -6905,7 +6905,7 @@
         <v>15</v>
       </c>
       <c r="AO45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP45" t="n">
         <v>15</v>
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
         <v>6.25</v>
@@ -6964,16 +6964,16 @@
         <v>2.2</v>
       </c>
       <c r="K46" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -6984,54 +6984,54 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T46" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AB46" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD46" t="n">
         <v>7</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
         <v>8.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG46" t="n">
         <v>13</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK46" t="n">
         <v>17</v>
@@ -7040,7 +7040,7 @@
         <v>51</v>
       </c>
       <c r="AM46" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AN46" t="n">
         <v>15</v>
@@ -7058,7 +7058,7 @@
         <v>41</v>
       </c>
       <c r="AS46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -7093,7 +7093,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
         <v>3.8</v>
@@ -7131,10 +7131,10 @@
         <v>2.35</v>
       </c>
       <c r="U47" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V47" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="W47" t="n">
         <v>2.38</v>
@@ -7238,13 +7238,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
         <v>2.88</v>
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H49" t="n">
         <v>3.8</v>
@@ -7415,10 +7415,10 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="T49" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -7435,13 +7435,13 @@
         <v>3</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD49" t="n">
         <v>7.5</v>
@@ -7453,7 +7453,7 @@
         <v>11</v>
       </c>
       <c r="AG49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
         <v>26</v>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J50" t="n">
         <v>3.25</v>
@@ -7556,10 +7556,10 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="T50" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
         <v>1.9</v>
@@ -7669,7 +7669,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H51" t="n">
         <v>3.7</v>
@@ -7678,13 +7678,13 @@
         <v>4.5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K51" t="n">
         <v>2.38</v>
       </c>
       <c r="L51" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7719,10 +7719,10 @@
         <v>1.44</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA51" t="n">
         <v>1.62</v>
@@ -7734,7 +7734,7 @@
         <v>9</v>
       </c>
       <c r="AD51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE51" t="n">
         <v>8.5</v>
@@ -7749,13 +7749,13 @@
         <v>21</v>
       </c>
       <c r="AI51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ51" t="n">
         <v>7</v>
       </c>
       <c r="AK51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL51" t="n">
         <v>41</v>
@@ -7767,13 +7767,13 @@
         <v>15</v>
       </c>
       <c r="AO51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP51" t="n">
         <v>15</v>
       </c>
       <c r="AQ51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR51" t="n">
         <v>34</v>
@@ -7817,10 +7817,10 @@
         <v>1.91</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I52" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J52" t="n">
         <v>2.5</v>
@@ -7879,7 +7879,7 @@
         <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE52" t="n">
         <v>8.5</v>
@@ -7897,7 +7897,7 @@
         <v>15</v>
       </c>
       <c r="AJ52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK52" t="n">
         <v>13</v>
@@ -7915,7 +7915,7 @@
         <v>21</v>
       </c>
       <c r="AP52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ52" t="n">
         <v>41</v>
@@ -7959,34 +7959,34 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J53" t="n">
         <v>2.3</v>
       </c>
       <c r="K53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L53" t="n">
         <v>5.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -7999,10 +7999,10 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X53" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y53" t="n">
         <v>1.44</v>
@@ -8026,7 +8026,7 @@
         <v>8.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
         <v>15</v>
@@ -8035,10 +8035,10 @@
         <v>29</v>
       </c>
       <c r="AI53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK53" t="n">
         <v>17</v>
@@ -8053,7 +8053,7 @@
         <v>13</v>
       </c>
       <c r="AO53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP53" t="n">
         <v>17</v>
@@ -8100,13 +8100,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J54" t="n">
         <v>2.4</v>
@@ -8156,13 +8156,13 @@
         <v>3.25</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AB54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD54" t="n">
         <v>9.5</v>
@@ -8207,7 +8207,7 @@
         <v>41</v>
       </c>
       <c r="AR54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS54" t="n">
         <v>34</v>
@@ -8254,13 +8254,13 @@
         <v>3.45</v>
       </c>
       <c r="J55" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -8280,7 +8280,7 @@
         <v>2.02</v>
       </c>
       <c r="T55" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -8303,22 +8303,22 @@
         <v>1.87</v>
       </c>
       <c r="AC55" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD55" t="n">
         <v>9.25</v>
       </c>
       <c r="AE55" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF55" t="n">
         <v>18</v>
       </c>
       <c r="AG55" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH55" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI55" t="n">
         <v>6.8</v>
@@ -8327,16 +8327,16 @@
         <v>6.3</v>
       </c>
       <c r="AK55" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL55" t="n">
         <v>75</v>
       </c>
       <c r="AM55" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN55" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AO55" t="n">
         <v>18</v>
@@ -8348,10 +8348,10 @@
         <v>50</v>
       </c>
       <c r="AR55" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS55" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -8486,7 +8486,7 @@
         <v>19</v>
       </c>
       <c r="AQ56" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR56" t="n">
         <v>65</v>
@@ -8677,13 +8677,13 @@
         <v>2.4</v>
       </c>
       <c r="J58" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
         <v>2.07</v>
       </c>
       <c r="L58" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -8726,10 +8726,10 @@
         <v>2.05</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD58" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE58" t="n">
         <v>10</v>
@@ -8741,13 +8741,13 @@
         <v>23</v>
       </c>
       <c r="AH58" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI58" t="n">
         <v>7.3</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AK58" t="n">
         <v>13</v>
@@ -8759,10 +8759,10 @@
         <v>400</v>
       </c>
       <c r="AN58" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO58" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP58" t="n">
         <v>9.25</v>
@@ -8771,10 +8771,10 @@
         <v>26</v>
       </c>
       <c r="AR58" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AS58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
@@ -8809,7 +8809,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H59" t="n">
         <v>4.2</v>
@@ -8867,7 +8867,7 @@
         <v>1.87</v>
       </c>
       <c r="AC59" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD59" t="n">
         <v>45</v>
@@ -8876,13 +8876,13 @@
         <v>21</v>
       </c>
       <c r="AF59" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG59" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH59" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI59" t="n">
         <v>8.25</v>
@@ -8953,7 +8953,7 @@
         <v>1.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
         <v>4.35</v>
@@ -9008,7 +9008,7 @@
         <v>1.72</v>
       </c>
       <c r="AC60" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD60" t="n">
         <v>7.3</v>
@@ -9053,7 +9053,7 @@
         <v>75</v>
       </c>
       <c r="AR60" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS60" t="n">
         <v>60</v>
@@ -9091,22 +9091,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="J61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K61" t="n">
         <v>2.12</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M61" t="n">
         <v>1.07</v>
@@ -9146,25 +9146,25 @@
         <v>1.85</v>
       </c>
       <c r="AB61" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD61" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG61" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH61" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI61" t="n">
         <v>6.9</v>
@@ -9182,22 +9182,22 @@
         <v>700</v>
       </c>
       <c r="AN61" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AO61" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -9232,22 +9232,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J62" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.2</v>
       </c>
       <c r="K62" t="n">
         <v>2.15</v>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -9264,7 +9264,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T62" t="n">
         <v>1.75</v>
@@ -9275,10 +9275,10 @@
         <v>3.3</v>
       </c>
       <c r="X62" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Z62" t="n">
         <v>2.75</v>
@@ -9290,22 +9290,22 @@
         <v>1.91</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG62" t="n">
         <v>23</v>
       </c>
       <c r="AH62" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI62" t="n">
         <v>7.1</v>
@@ -9323,22 +9323,22 @@
         <v>600</v>
       </c>
       <c r="AN62" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AO62" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP62" t="n">
         <v>9.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR62" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -9514,22 +9514,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H64" t="n">
         <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="J64" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>2.1</v>
       </c>
       <c r="L64" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="M64" t="n">
         <v>1.06</v>
@@ -9575,19 +9575,19 @@
         <v>8.25</v>
       </c>
       <c r="AD64" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE64" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH64" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI64" t="n">
         <v>7.4</v>
@@ -9608,19 +9608,19 @@
         <v>9.25</v>
       </c>
       <c r="AO64" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AQ64" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR64" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS64" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -9655,22 +9655,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J65" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="K65" t="n">
         <v>2.1</v>
       </c>
       <c r="L65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M65" t="n">
         <v>1.06</v>
@@ -9722,10 +9722,10 @@
         <v>9</v>
       </c>
       <c r="AF65" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH65" t="n">
         <v>30</v>
@@ -9746,13 +9746,13 @@
         <v>600</v>
       </c>
       <c r="AN65" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AO65" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AQ65" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
@@ -841,34 +841,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -893,10 +893,10 @@
         <v>2.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AC3" t="n">
         <v>4.33</v>
@@ -905,7 +905,7 @@
         <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -935,16 +935,16 @@
         <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR3" t="n">
         <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>81</v>
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.73</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1073,7 +1073,7 @@
         <v>101</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1141,16 +1141,16 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1300,10 +1300,10 @@
         <v>1.9</v>
       </c>
       <c r="S6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
         <v>1.57</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
         <v>29</v>
@@ -1347,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1365,13 +1365,13 @@
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS6" t="n">
         <v>41</v>
@@ -1439,10 +1439,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
         <v>2.6</v>
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -1717,10 +1717,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1765,7 +1765,7 @@
         <v>1.53</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>12</v>
@@ -1774,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
         <v>34</v>
@@ -1798,13 +1798,13 @@
         <v>1250</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
         <v>29</v>
@@ -1866,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -1878,10 +1878,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
         <v>2.5</v>
@@ -1997,16 +1997,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
@@ -2146,16 +2146,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>1.91</v>
@@ -2221,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>23</v>
@@ -2245,7 +2245,7 @@
         <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2706,16 +2706,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -2724,10 +2724,10 @@
         <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -2738,10 +2738,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2758,16 +2758,16 @@
         <v>3.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>8.5</v>
@@ -2791,7 +2791,7 @@
         <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
         <v>201</v>
@@ -2812,7 +2812,7 @@
         <v>34</v>
       </c>
       <c r="AS16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
@@ -2856,7 +2856,7 @@
         <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
@@ -2865,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2879,10 +2879,10 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2899,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AC17" t="n">
         <v>8.5</v>
@@ -2917,7 +2917,7 @@
         <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
@@ -2950,7 +2950,7 @@
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
         <v>34</v>
@@ -3151,10 +3151,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3280,7 +3280,7 @@
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3289,7 +3289,7 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3335,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>11</v>
@@ -3368,7 +3368,7 @@
         <v>8.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>9</v>
@@ -3433,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L23" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3735,37 +3735,37 @@
         <v>1.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AA23" t="n">
         <v>1.65</v>
       </c>
       <c r="AB23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>6</v>
@@ -3774,7 +3774,7 @@
         <v>12.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>400</v>
@@ -3783,19 +3783,19 @@
         <v>8.25</v>
       </c>
       <c r="AO23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AS23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -3830,28 +3830,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H24" t="n">
         <v>4.75</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K24" t="n">
         <v>2.63</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O24" t="n">
         <v>1.13</v>
@@ -3862,18 +3862,18 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y24" t="n">
         <v>1.25</v>
@@ -3882,13 +3882,13 @@
         <v>3.75</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>9</v>
@@ -3897,7 +3897,7 @@
         <v>8.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
@@ -3918,25 +3918,25 @@
         <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
       </c>
       <c r="AS24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
@@ -4003,24 +4003,24 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA25" t="n">
         <v>1.67</v>
@@ -4032,7 +4032,7 @@
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>9.5</v>
@@ -4277,18 +4277,18 @@
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -4426,18 +4426,18 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y28" t="n">
         <v>1.36</v>
@@ -4535,13 +4535,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H29" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
         <v>1.5</v>
@@ -4550,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
@@ -4559,10 +4559,10 @@
         <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -4591,22 +4591,22 @@
         <v>4.33</v>
       </c>
       <c r="AA29" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -4618,16 +4618,16 @@
         <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>51</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AN29" t="n">
         <v>29</v>
@@ -4680,28 +4680,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
         <v>1.95</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -4741,13 +4741,13 @@
         <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>21</v>
@@ -4771,19 +4771,19 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR30" t="n">
         <v>29</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>26</v>
       </c>
       <c r="AS30" t="n">
         <v>41</v>
@@ -4821,42 +4821,42 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -4879,19 +4879,19 @@
         <v>1.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE31" t="n">
         <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
@@ -4909,22 +4909,22 @@
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR31" t="n">
         <v>34</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>29</v>
       </c>
       <c r="AS31" t="n">
         <v>41</v>
@@ -4962,22 +4962,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -5020,16 +5020,16 @@
         <v>1.67</v>
       </c>
       <c r="AC32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
         <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5044,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="n">
         <v>67</v>
@@ -5053,19 +5053,19 @@
         <v>101</v>
       </c>
       <c r="AN32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP32" t="n">
         <v>19</v>
       </c>
       <c r="AQ32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS32" t="n">
         <v>51</v>
@@ -5103,93 +5103,93 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R33" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB33" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1.53</v>
       </c>
       <c r="AC33" t="n">
         <v>5</v>
       </c>
       <c r="AD33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ33" t="n">
         <v>7</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL33" t="n">
         <v>81</v>
@@ -5198,19 +5198,19 @@
         <v>101</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO33" t="n">
         <v>23</v>
       </c>
       <c r="AP33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ33" t="n">
         <v>51</v>
       </c>
       <c r="AR33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS33" t="n">
         <v>51</v>
@@ -5248,56 +5248,56 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P34" t="n">
         <v>3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>8</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.75</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA34" t="n">
         <v>1.91</v>
@@ -5306,31 +5306,31 @@
         <v>1.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
         <v>51</v>
@@ -5339,19 +5339,19 @@
         <v>351</v>
       </c>
       <c r="AN34" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP34" t="n">
         <v>15</v>
       </c>
-      <c r="AP34" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AS34" t="n">
         <v>41</v>
@@ -5392,51 +5392,51 @@
         <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="S35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y35" t="n">
         <v>1.57</v>
@@ -5445,10 +5445,10 @@
         <v>2.25</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC35" t="n">
         <v>6</v>
@@ -5463,13 +5463,13 @@
         <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH35" t="n">
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ35" t="n">
         <v>6</v>
@@ -5478,13 +5478,13 @@
         <v>19</v>
       </c>
       <c r="AL35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM35" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO35" t="n">
         <v>15</v>
@@ -5493,7 +5493,7 @@
         <v>13</v>
       </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR35" t="n">
         <v>34</v>
@@ -5534,7 +5534,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
@@ -5564,10 +5564,10 @@
         <v>2.5</v>
       </c>
       <c r="Q36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.95</v>
       </c>
       <c r="S36" t="n">
         <v>2.5</v>
@@ -5590,10 +5590,10 @@
         <v>2.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC36" t="n">
         <v>7</v>
@@ -5620,16 +5620,16 @@
         <v>6.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO36" t="n">
         <v>10</v>
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H37" t="n">
         <v>4.33</v>
@@ -5697,10 +5697,10 @@
         <v>8</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
@@ -5711,10 +5711,10 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T37" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -5755,10 +5755,10 @@
         <v>34</v>
       </c>
       <c r="AI37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK37" t="n">
         <v>23</v>
@@ -5776,7 +5776,7 @@
         <v>41</v>
       </c>
       <c r="AP37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
         <v>101</v>
@@ -5820,13 +5820,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
         <v>2.75</v>
@@ -5841,7 +5841,7 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
@@ -5852,24 +5852,24 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA38" t="n">
         <v>1.91</v>
@@ -5881,25 +5881,25 @@
         <v>6.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE38" t="n">
         <v>9</v>
       </c>
       <c r="AF38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK38" t="n">
         <v>17</v>
@@ -5911,10 +5911,10 @@
         <v>351</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP38" t="n">
         <v>13</v>
@@ -6098,38 +6098,38 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.85</v>
+        <v>2.32</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.35</v>
+        <v>2.72</v>
       </c>
       <c r="J40" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="K40" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L40" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -6149,58 +6149,58 @@
         <v>1.65</v>
       </c>
       <c r="AB40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD40" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE40" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP40" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF40" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH40" t="n">
+      <c r="AQ40" t="n">
         <v>32</v>
       </c>
-      <c r="AI40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>25</v>
-      </c>
       <c r="AR40" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AS40" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -6680,10 +6680,10 @@
         <v>4.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O44" t="n">
         <v>1.2</v>
@@ -6807,22 +6807,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H45" t="n">
         <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K45" t="n">
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -6872,7 +6872,7 @@
         <v>8.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE45" t="n">
         <v>8.5</v>
@@ -6890,7 +6890,7 @@
         <v>12</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK45" t="n">
         <v>13</v>
@@ -6911,13 +6911,13 @@
         <v>15</v>
       </c>
       <c r="AQ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR45" t="n">
         <v>34</v>
       </c>
       <c r="AS45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -6970,10 +6970,10 @@
         <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -7238,16 +7238,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>2.3</v>
@@ -7256,10 +7256,10 @@
         <v>3.25</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
         <v>1.2</v>
@@ -7318,7 +7318,7 @@
         <v>23</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ48" t="n">
         <v>7</v>
@@ -7333,13 +7333,13 @@
         <v>126</v>
       </c>
       <c r="AN48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ48" t="n">
         <v>29</v>
@@ -7401,32 +7401,32 @@
         <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T49" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X49" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y49" t="n">
         <v>1.36</v>
@@ -7687,10 +7687,10 @@
         <v>4.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O51" t="n">
         <v>1.2</v>
@@ -7977,16 +7977,16 @@
         <v>5.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -7999,10 +7999,10 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X53" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y53" t="n">
         <v>1.44</v>
@@ -8100,16 +8100,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K54" t="n">
         <v>2.3</v>
@@ -8121,21 +8121,21 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T54" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U54" t="n">
         <v>2.05</v>
@@ -8144,10 +8144,10 @@
         <v>1.8</v>
       </c>
       <c r="W54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y54" t="n">
         <v>1.33</v>
@@ -8156,31 +8156,31 @@
         <v>3.25</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AB54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE54" t="n">
         <v>8.5</v>
       </c>
       <c r="AF54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG54" t="n">
         <v>15</v>
       </c>
-      <c r="AG54" t="n">
-        <v>13</v>
-      </c>
       <c r="AH54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ54" t="n">
         <v>7</v>
@@ -8201,7 +8201,7 @@
         <v>23</v>
       </c>
       <c r="AP54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ54" t="n">
         <v>41</v>
@@ -8254,13 +8254,13 @@
         <v>3.45</v>
       </c>
       <c r="J55" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K55" t="n">
         <v>2.05</v>
       </c>
       <c r="L55" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -8303,13 +8303,13 @@
         <v>1.87</v>
       </c>
       <c r="AC55" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD55" t="n">
         <v>9.25</v>
       </c>
       <c r="AE55" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF55" t="n">
         <v>18</v>
@@ -8333,10 +8333,10 @@
         <v>75</v>
       </c>
       <c r="AM55" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN55" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO55" t="n">
         <v>18</v>
@@ -8386,56 +8386,56 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H56" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I56" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L56" t="n">
         <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.9</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O56" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T56" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="X56" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Z56" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AA56" t="n">
         <v>1.75</v>
@@ -8447,25 +8447,25 @@
         <v>8</v>
       </c>
       <c r="AD56" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE56" t="n">
         <v>8</v>
       </c>
       <c r="AF56" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG56" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH56" t="n">
         <v>22</v>
       </c>
       <c r="AI56" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ56" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK56" t="n">
         <v>16.5</v>
@@ -8477,13 +8477,13 @@
         <v>450</v>
       </c>
       <c r="AN56" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ56" t="n">
         <v>150</v>
@@ -8527,86 +8527,86 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H57" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I57" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="J57" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="K57" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P57" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T57" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="X57" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Z57" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AB57" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AC57" t="n">
         <v>7.2</v>
       </c>
       <c r="AD57" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE57" t="n">
         <v>8.25</v>
       </c>
       <c r="AF57" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG57" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI57" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AJ57" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AK57" t="n">
         <v>15.5</v>
@@ -8615,19 +8615,19 @@
         <v>70</v>
       </c>
       <c r="AM57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO57" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP57" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ57" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR57" t="n">
         <v>40</v>
@@ -8668,22 +8668,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
         <v>2.4</v>
       </c>
       <c r="J58" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K58" t="n">
         <v>2.07</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -8726,10 +8726,10 @@
         <v>2.05</v>
       </c>
       <c r="AC58" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD58" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE58" t="n">
         <v>10</v>
@@ -8738,10 +8738,10 @@
         <v>32</v>
       </c>
       <c r="AG58" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH58" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI58" t="n">
         <v>7.3</v>
@@ -8759,10 +8759,10 @@
         <v>400</v>
       </c>
       <c r="AN58" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP58" t="n">
         <v>9.25</v>
@@ -8771,10 +8771,10 @@
         <v>26</v>
       </c>
       <c r="AR58" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
@@ -8809,34 +8809,34 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I59" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="J59" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="K59" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="M59" t="n">
         <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P59" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -8844,78 +8844,78 @@
         <v>1.65</v>
       </c>
       <c r="T59" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="X59" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Z59" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AB59" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AC59" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AD59" t="n">
         <v>45</v>
       </c>
       <c r="AE59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF59" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG59" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH59" t="n">
         <v>75</v>
       </c>
-      <c r="AH59" t="n">
-        <v>65</v>
-      </c>
       <c r="AI59" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL59" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM59" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN59" t="n">
         <v>7.4</v>
       </c>
       <c r="AO59" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AP59" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AR59" t="n">
         <v>11</v>
       </c>
       <c r="AS59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
@@ -9091,22 +9091,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="J61" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K61" t="n">
         <v>2.12</v>
       </c>
       <c r="L61" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M61" t="n">
         <v>1.07</v>
@@ -9118,12 +9118,12 @@
         <v>1.35</v>
       </c>
       <c r="P61" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T61" t="n">
         <v>1.7</v>
@@ -9131,7 +9131,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="X61" t="n">
         <v>1.26</v>
@@ -9149,19 +9149,19 @@
         <v>1.85</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD61" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE61" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF61" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG61" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AH61" t="n">
         <v>40</v>
@@ -9170,7 +9170,7 @@
         <v>6.9</v>
       </c>
       <c r="AJ61" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AK61" t="n">
         <v>15.5</v>
@@ -9182,19 +9182,19 @@
         <v>700</v>
       </c>
       <c r="AN61" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AO61" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AQ61" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR61" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AS61" t="n">
         <v>32</v>
@@ -9232,47 +9232,47 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="H62" t="n">
         <v>3.35</v>
       </c>
       <c r="I62" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="J62" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="K62" t="n">
         <v>2.15</v>
       </c>
       <c r="L62" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O62" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T62" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X62" t="n">
         <v>1.29</v>
@@ -9281,40 +9281,40 @@
         <v>1.39</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD62" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE62" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AF62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH62" t="n">
         <v>30</v>
       </c>
-      <c r="AG62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>35</v>
-      </c>
       <c r="AI62" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AJ62" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AK62" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL62" t="n">
         <v>70</v>
@@ -9323,22 +9323,22 @@
         <v>600</v>
       </c>
       <c r="AN62" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AO62" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AQ62" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR62" t="n">
         <v>23</v>
       </c>
-      <c r="AR62" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AS62" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -9529,7 +9529,7 @@
         <v>2.1</v>
       </c>
       <c r="L64" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M64" t="n">
         <v>1.06</v>
@@ -9572,7 +9572,7 @@
         <v>2.02</v>
       </c>
       <c r="AC64" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD64" t="n">
         <v>12</v>
@@ -9581,7 +9581,7 @@
         <v>9.25</v>
       </c>
       <c r="AF64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG64" t="n">
         <v>19</v>
@@ -9608,7 +9608,7 @@
         <v>9.25</v>
       </c>
       <c r="AO64" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP64" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-22.xlsx
@@ -2146,22 +2146,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
@@ -2176,10 +2176,10 @@
         <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>2.6</v>
@@ -2188,16 +2188,16 @@
         <v>1.48</v>
       </c>
       <c r="U12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y12" t="n">
         <v>1.57</v>
@@ -2212,31 +2212,31 @@
         <v>1.67</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>6</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>67</v>
@@ -2245,19 +2245,19 @@
         <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
         <v>41</v>
@@ -3282,22 +3282,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.15</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -3318,7 +3318,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="X20" t="n">
         <v>1.3</v>
@@ -3327,7 +3327,7 @@
         <v>1.42</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AA20" t="n">
         <v>1.65</v>
@@ -3336,31 +3336,31 @@
         <v>1.98</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AK20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>55</v>
@@ -3369,22 +3369,22 @@
         <v>400</v>
       </c>
       <c r="AN20" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AQ20" t="n">
         <v>32</v>
       </c>
       <c r="AR20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -5413,13 +5413,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
         <v>2.75</v>
@@ -5428,16 +5428,16 @@
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
         <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -5453,28 +5453,28 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X35" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AC35" t="n">
         <v>6.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE35" t="n">
         <v>9</v>
@@ -5486,10 +5486,10 @@
         <v>17</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ35" t="n">
         <v>6.5</v>
@@ -5510,7 +5510,7 @@
         <v>19</v>
       </c>
       <c r="AP35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
@@ -6565,19 +6565,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K43" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L43" t="n">
         <v>5.5</v>
@@ -6586,35 +6586,35 @@
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X43" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA43" t="n">
         <v>1.8</v>
@@ -6626,25 +6626,25 @@
         <v>7.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE43" t="n">
         <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI43" t="n">
         <v>12</v>
       </c>
-      <c r="AH43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK43" t="n">
         <v>17</v>
@@ -6656,10 +6656,10 @@
         <v>251</v>
       </c>
       <c r="AN43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP43" t="n">
         <v>17</v>
@@ -6709,10 +6709,10 @@
         <v>2.88</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J44" t="n">
         <v>3.4</v>
@@ -6721,7 +6721,7 @@
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
@@ -6738,10 +6738,10 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T44" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="n">
         <v>1.9</v>
@@ -6762,10 +6762,10 @@
         <v>2.75</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AB44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AC44" t="n">
         <v>10</v>
@@ -6786,37 +6786,37 @@
         <v>29</v>
       </c>
       <c r="AI44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL44" t="n">
         <v>41</v>
       </c>
       <c r="AM44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AQ44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -6851,22 +6851,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J45" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K45" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L45" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6883,22 +6883,22 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T45" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="U45" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V45" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W45" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X45" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y45" t="n">
         <v>1.29</v>
@@ -6907,25 +6907,25 @@
         <v>3.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AB45" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AC45" t="n">
         <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE45" t="n">
         <v>8.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>19</v>
@@ -6946,16 +6946,16 @@
         <v>126</v>
       </c>
       <c r="AN45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR45" t="n">
         <v>29</v>
@@ -6996,42 +6996,42 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
         <v>3.8</v>
       </c>
       <c r="J46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K46" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="T46" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="U46" t="n">
         <v>2.05</v>
@@ -7040,28 +7040,28 @@
         <v>1.8</v>
       </c>
       <c r="W46" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="X46" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AB46" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE46" t="n">
         <v>8.5</v>
@@ -7070,28 +7070,28 @@
         <v>17</v>
       </c>
       <c r="AG46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI46" t="n">
         <v>13</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>15</v>
       </c>
       <c r="AJ46" t="n">
         <v>7</v>
       </c>
       <c r="AK46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL46" t="n">
         <v>41</v>
       </c>
       <c r="AM46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO46" t="n">
         <v>21</v>
@@ -7103,10 +7103,10 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -7141,13 +7141,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
         <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J47" t="n">
         <v>2.38</v>
@@ -7156,53 +7156,53 @@
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AB47" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE47" t="n">
         <v>8.5</v>
@@ -7214,10 +7214,10 @@
         <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ47" t="n">
         <v>7</v>
@@ -7229,7 +7229,7 @@
         <v>51</v>
       </c>
       <c r="AM47" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN47" t="n">
         <v>12</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H48" t="n">
         <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
         <v>2.5</v>
@@ -7297,7 +7297,7 @@
         <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
@@ -7356,7 +7356,7 @@
         <v>17</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
         <v>21</v>
@@ -7368,7 +7368,7 @@
         <v>7</v>
       </c>
       <c r="AK48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL48" t="n">
         <v>41</v>
@@ -7377,10 +7377,10 @@
         <v>151</v>
       </c>
       <c r="AN48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP48" t="n">
         <v>13</v>
@@ -8414,56 +8414,56 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="H56" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J56" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L56" t="n">
         <v>3.15</v>
       </c>
       <c r="M56" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="O56" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="T56" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X56" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AA56" t="n">
         <v>1.78</v>
@@ -8472,46 +8472,46 @@
         <v>1.93</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE56" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF56" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AG56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH56" t="n">
         <v>32</v>
       </c>
       <c r="AI56" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AJ56" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AK56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM56" t="n">
         <v>600</v>
       </c>
       <c r="AN56" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO56" t="n">
         <v>12.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AQ56" t="n">
         <v>28</v>
@@ -8649,7 +8649,7 @@
         <v>10.75</v>
       </c>
       <c r="AO57" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP57" t="n">
         <v>13.5</v>
@@ -8696,56 +8696,56 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="H58" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K58" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O58" t="n">
         <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X58" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AA58" t="n">
         <v>1.7</v>
@@ -8754,31 +8754,31 @@
         <v>2.05</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF58" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH58" t="n">
         <v>32</v>
       </c>
-      <c r="AG58" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>29</v>
-      </c>
       <c r="AI58" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AK58" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL58" t="n">
         <v>55</v>
@@ -8787,22 +8787,22 @@
         <v>400</v>
       </c>
       <c r="AN58" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO58" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AQ58" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS58" t="n">
         <v>26</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -8837,22 +8837,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J59" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="K59" t="n">
         <v>2.05</v>
       </c>
       <c r="L59" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>1.07</v>
@@ -8864,7 +8864,7 @@
         <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -8895,19 +8895,19 @@
         <v>1.83</v>
       </c>
       <c r="AC59" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD59" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE59" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF59" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH59" t="n">
         <v>32</v>
@@ -8928,22 +8928,22 @@
         <v>700</v>
       </c>
       <c r="AN59" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AO59" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AP59" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AQ59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR59" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
